--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/NIVELAMENTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/nivelamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F316C94-C43F-49D6-A627-2717C808BF7D}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DF605D-68B1-42B1-BACE-2B16AD6B87E6}"/>
   <bookViews>
-    <workbookView xWindow="-13755" yWindow="1440" windowWidth="13860" windowHeight="15585" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1458,6 +1458,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1503,6 +1504,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,16 +1540,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,10 +1949,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.26193181818181815</c:v>
+                  <c:v>0.61172638628611486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94346590909090911</c:v>
+                  <c:v>0.59367134098661245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2668,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.26193181818181815</c:v>
+                  <c:v>0.61172638628611486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94346590909090911</c:v>
+                  <c:v>0.59367134098661245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,10 +4531,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -4857,8 +4853,8 @@
   </sheetPr>
   <dimension ref="B1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,14 +4872,14 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -4965,14 +4961,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -5046,14 +5042,14 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="AD12" t="s">
         <v>251</v>
       </c>
@@ -5127,45 +5123,45 @@
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="I18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="I18" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="I19" s="34" t="s">
         <v>89</v>
       </c>
       <c r="J19" s="33">
         <f>SUM(J20:J21)</f>
-        <v>848.6</v>
+        <v>1348.6</v>
       </c>
       <c r="K19" s="35">
         <f>E4</f>
@@ -5173,31 +5169,31 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
       <c r="I20" s="36" t="s">
         <v>87</v>
       </c>
       <c r="J20" s="32">
         <f>'AUSETU T.E'!H1</f>
-        <v>184.4</v>
+        <v>684.4</v>
       </c>
       <c r="K20" s="37">
         <f>J20*K19/J19</f>
-        <v>0.26193181818181815</v>
+        <v>0.61172638628611486</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="I21" s="38" t="s">
         <v>88</v>
       </c>
@@ -5207,87 +5203,87 @@
       </c>
       <c r="K21" s="40">
         <f>J21*K19/J19</f>
-        <v>0.94346590909090911</v>
+        <v>0.59367134098661245</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="I29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="I29" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
       <c r="I30" s="34" t="s">
         <v>89</v>
       </c>
@@ -5301,12 +5297,12 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
       <c r="I31" s="36" t="s">
         <v>87</v>
       </c>
@@ -5320,12 +5316,12 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
       <c r="I32" s="38" t="s">
         <v>88</v>
       </c>
@@ -5339,83 +5335,83 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-      <c r="I40" s="56" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="I40" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="57"/>
-      <c r="K40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
       <c r="I41" s="34" t="s">
         <v>89</v>
       </c>
@@ -5429,12 +5425,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
       <c r="I42" s="36" t="s">
         <v>87</v>
       </c>
@@ -5444,16 +5440,16 @@
       </c>
       <c r="K42" s="37" cm="1">
         <f t="array" ref="K42:K43">K20:K21</f>
-        <v>0.26193181818181815</v>
+        <v>0.61172638628611486</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
       <c r="I43" s="38" t="s">
         <v>88</v>
       </c>
@@ -5462,128 +5458,128 @@
         <v>700.2</v>
       </c>
       <c r="K43" s="40">
-        <v>0.94346590909090911</v>
+        <v>0.59367134098661245</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="N44">
         <v>100</v>
       </c>
       <c r="O44" s="42">
         <f>SUM(J47+J48)</f>
-        <v>1.6178977272727273</v>
+        <v>1.5012995379046286</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
       <c r="N45" t="s">
         <v>56</v>
       </c>
       <c r="O45" s="43">
         <f>J47*N44</f>
-        <v>64.272729371662692</v>
+        <v>75.93254830847259</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
-      <c r="I46" s="56" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="I46" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
-        <v>97.517043355610028</v>
+        <v>74.197405481990259</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
       <c r="I47" s="36" t="s">
         <v>87</v>
       </c>
       <c r="J47" s="42">
         <f>SUM(K19+K31+K42)/3</f>
-        <v>0.64272729371662696</v>
+        <v>0.75932548308472592</v>
       </c>
       <c r="K47" s="1">
         <f>K51</f>
-        <v>0.39726076802151483</v>
+        <v>0.50577880290599464</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
       <c r="I48" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J48" s="42">
         <f>SUM(K21+K32+K43)/3</f>
-        <v>0.97517043355610034</v>
+        <v>0.74197405481990264</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="I50" s="56" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+      <c r="I50" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I51" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="K51" s="71">
+      <c r="K51" s="44">
         <f>O45/O44/100</f>
-        <v>0.39726076802151483</v>
+        <v>0.50577880290599464</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I52" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K52" s="71">
+      <c r="K52" s="44">
         <f>O46/O44/100</f>
-        <v>0.60273923197848522</v>
+        <v>0.49422119709400536</v>
       </c>
     </row>
   </sheetData>
@@ -5649,10 +5645,10 @@
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5685,7 +5681,7 @@
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>SUM(H3:H1048576)</f>
-        <v>184.4</v>
+        <v>684.4</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7162,6 +7158,11 @@
       </c>
       <c r="AC22">
         <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/nivelamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DF605D-68B1-42B1-BACE-2B16AD6B87E6}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE375DB8-5CE6-44BC-9B53-AEA98CE57081}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="1000" activeTab="1" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1459,6 +1459,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,33 +1538,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1949,10 +1949,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.61172638628611486</c:v>
+                  <c:v>0.26193181818181815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59367134098661245</c:v>
+                  <c:v>0.94346590909090911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2668,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.61172638628611486</c:v>
+                  <c:v>0.26193181818181815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59367134098661245</c:v>
+                  <c:v>0.94346590909090911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,8 +4853,8 @@
   </sheetPr>
   <dimension ref="B1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,14 +4872,14 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -4961,14 +4961,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -5042,14 +5042,14 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="AD12" t="s">
         <v>251</v>
       </c>
@@ -5123,45 +5123,45 @@
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="I18" s="57" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="I18" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="I19" s="34" t="s">
         <v>89</v>
       </c>
       <c r="J19" s="33">
         <f>SUM(J20:J21)</f>
-        <v>1348.6</v>
+        <v>848.6</v>
       </c>
       <c r="K19" s="35">
         <f>E4</f>
@@ -5169,31 +5169,31 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="I20" s="36" t="s">
         <v>87</v>
       </c>
       <c r="J20" s="32">
         <f>'AUSETU T.E'!H1</f>
-        <v>684.4</v>
+        <v>184.4</v>
       </c>
       <c r="K20" s="37">
         <f>J20*K19/J19</f>
-        <v>0.61172638628611486</v>
+        <v>0.26193181818181815</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="I21" s="38" t="s">
         <v>88</v>
       </c>
@@ -5203,87 +5203,87 @@
       </c>
       <c r="K21" s="40">
         <f>J21*K19/J19</f>
-        <v>0.59367134098661245</v>
+        <v>0.94346590909090911</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="I29" s="57" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="I29" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
       <c r="I30" s="34" t="s">
         <v>89</v>
       </c>
@@ -5297,12 +5297,12 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="I31" s="36" t="s">
         <v>87</v>
       </c>
@@ -5316,12 +5316,12 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="I32" s="38" t="s">
         <v>88</v>
       </c>
@@ -5335,83 +5335,83 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="I40" s="57" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="I40" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
       <c r="I41" s="34" t="s">
         <v>89</v>
       </c>
@@ -5425,12 +5425,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
       <c r="I42" s="36" t="s">
         <v>87</v>
       </c>
@@ -5440,16 +5440,16 @@
       </c>
       <c r="K42" s="37" cm="1">
         <f t="array" ref="K42:K43">K20:K21</f>
-        <v>0.61172638628611486</v>
+        <v>0.26193181818181815</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
       <c r="I43" s="38" t="s">
         <v>88</v>
       </c>
@@ -5458,110 +5458,110 @@
         <v>700.2</v>
       </c>
       <c r="K43" s="40">
-        <v>0.59367134098661245</v>
+        <v>0.94346590909090911</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
       <c r="N44">
         <v>100</v>
       </c>
       <c r="O44" s="42">
         <f>SUM(J47+J48)</f>
-        <v>1.5012995379046286</v>
+        <v>1.6178977272727273</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
       <c r="N45" t="s">
         <v>56</v>
       </c>
       <c r="O45" s="43">
         <f>J47*N44</f>
-        <v>75.93254830847259</v>
+        <v>64.272729371662692</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="I46" s="57" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
+      <c r="I46" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
-        <v>74.197405481990259</v>
+        <v>97.517043355610028</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
       <c r="I47" s="36" t="s">
         <v>87</v>
       </c>
       <c r="J47" s="42">
         <f>SUM(K19+K31+K42)/3</f>
-        <v>0.75932548308472592</v>
+        <v>0.64272729371662696</v>
       </c>
       <c r="K47" s="1">
         <f>K51</f>
-        <v>0.50577880290599464</v>
+        <v>0.39726076802151483</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
       <c r="I48" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J48" s="42">
         <f>SUM(K21+K32+K43)/3</f>
-        <v>0.74197405481990264</v>
+        <v>0.97517043355610034</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="I50" s="57" t="s">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="I50" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="K51" s="44">
         <f>O45/O44/100</f>
-        <v>0.50577880290599464</v>
+        <v>0.39726076802151483</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5579,16 +5579,11 @@
       </c>
       <c r="K52" s="44">
         <f>O46/O44/100</f>
-        <v>0.49422119709400536</v>
+        <v>0.60273923197848522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B41:G50"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I46:K46"/>
@@ -5600,6 +5595,11 @@
     <mergeCell ref="B19:G28"/>
     <mergeCell ref="B30:G39"/>
     <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="F51:F1048576 F1:F16">
     <cfRule type="colorScale" priority="1">
@@ -5645,10 +5645,10 @@
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,7 +5681,7 @@
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>SUM(H3:H1048576)</f>
-        <v>684.4</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7158,11 +7158,6 @@
       </c>
       <c r="AC22">
         <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/nivelamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE375DB8-5CE6-44BC-9B53-AEA98CE57081}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB9ABA8-D059-4D94-95A0-A48DA7C22809}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="1000" activeTab="1" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1949,10 +1949,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.26193181818181815</c:v>
+                  <c:v>0.61172638628611486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94346590909090911</c:v>
+                  <c:v>0.59367134098661245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2668,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.26193181818181815</c:v>
+                  <c:v>0.61172638628611486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94346590909090911</c:v>
+                  <c:v>0.59367134098661245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,8 +4853,8 @@
   </sheetPr>
   <dimension ref="B1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="J19" s="33">
         <f>SUM(J20:J21)</f>
-        <v>848.6</v>
+        <v>1348.6</v>
       </c>
       <c r="K19" s="35">
         <f>E4</f>
@@ -5180,11 +5180,11 @@
       </c>
       <c r="J20" s="32">
         <f>'AUSETU T.E'!H1</f>
-        <v>184.4</v>
+        <v>684.4</v>
       </c>
       <c r="K20" s="37">
         <f>J20*K19/J19</f>
-        <v>0.26193181818181815</v>
+        <v>0.61172638628611486</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="K21" s="40">
         <f>J21*K19/J19</f>
-        <v>0.94346590909090911</v>
+        <v>0.59367134098661245</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="K42" s="37" cm="1">
         <f t="array" ref="K42:K43">K20:K21</f>
-        <v>0.26193181818181815</v>
+        <v>0.61172638628611486</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5458,7 +5458,7 @@
         <v>700.2</v>
       </c>
       <c r="K43" s="40">
-        <v>0.94346590909090911</v>
+        <v>0.59367134098661245</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="O44" s="42">
         <f>SUM(J47+J48)</f>
-        <v>1.6178977272727273</v>
+        <v>1.5012995379046286</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="O45" s="43">
         <f>J47*N44</f>
-        <v>64.272729371662692</v>
+        <v>75.93254830847259</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5505,7 +5505,7 @@
       <c r="K46" s="68"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
-        <v>97.517043355610028</v>
+        <v>74.197405481990259</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -5520,11 +5520,11 @@
       </c>
       <c r="J47" s="42">
         <f>SUM(K19+K31+K42)/3</f>
-        <v>0.64272729371662696</v>
+        <v>0.75932548308472592</v>
       </c>
       <c r="K47" s="1">
         <f>K51</f>
-        <v>0.39726076802151483</v>
+        <v>0.50577880290599464</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="J48" s="42">
         <f>SUM(K21+K32+K43)/3</f>
-        <v>0.97517043355610034</v>
+        <v>0.74197405481990264</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="K51" s="44">
         <f>O45/O44/100</f>
-        <v>0.39726076802151483</v>
+        <v>0.50577880290599464</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="K52" s="44">
         <f>O46/O44/100</f>
-        <v>0.60273923197848522</v>
+        <v>0.49422119709400536</v>
       </c>
     </row>
   </sheetData>
@@ -5645,10 +5645,10 @@
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,7 +5681,7 @@
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>SUM(H3:H1048576)</f>
-        <v>184.4</v>
+        <v>684.4</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7158,6 +7158,11 @@
       </c>
       <c r="AC22">
         <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/nivelamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB9ABA8-D059-4D94-95A0-A48DA7C22809}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74254CB-9668-4A5B-8600-49855EA08854}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="1000" activeTab="1" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1459,33 +1459,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,6 +1511,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1949,10 +1949,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.61172638628611486</c:v>
+                  <c:v>0.26193181818181815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59367134098661245</c:v>
+                  <c:v>0.94346590909090911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2668,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.61172638628611486</c:v>
+                  <c:v>0.26193181818181815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59367134098661245</c:v>
+                  <c:v>0.94346590909090911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,7 +4853,7 @@
   </sheetPr>
   <dimension ref="B1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -4872,14 +4872,14 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -4961,14 +4961,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -5042,14 +5042,14 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="AD12" t="s">
         <v>251</v>
       </c>
@@ -5123,45 +5123,45 @@
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="I18" s="66" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="I18" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="I19" s="34" t="s">
         <v>89</v>
       </c>
       <c r="J19" s="33">
         <f>SUM(J20:J21)</f>
-        <v>1348.6</v>
+        <v>848.6</v>
       </c>
       <c r="K19" s="35">
         <f>E4</f>
@@ -5169,31 +5169,31 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
       <c r="I20" s="36" t="s">
         <v>87</v>
       </c>
       <c r="J20" s="32">
         <f>'AUSETU T.E'!H1</f>
-        <v>684.4</v>
+        <v>184.4</v>
       </c>
       <c r="K20" s="37">
         <f>J20*K19/J19</f>
-        <v>0.61172638628611486</v>
+        <v>0.26193181818181815</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="I21" s="38" t="s">
         <v>88</v>
       </c>
@@ -5203,87 +5203,87 @@
       </c>
       <c r="K21" s="40">
         <f>J21*K19/J19</f>
-        <v>0.59367134098661245</v>
+        <v>0.94346590909090911</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
-      <c r="I29" s="66" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="I29" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
       <c r="I30" s="34" t="s">
         <v>89</v>
       </c>
@@ -5297,12 +5297,12 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
       <c r="I31" s="36" t="s">
         <v>87</v>
       </c>
@@ -5316,12 +5316,12 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
       <c r="I32" s="38" t="s">
         <v>88</v>
       </c>
@@ -5335,83 +5335,83 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="I40" s="66" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="I40" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="67"/>
-      <c r="K40" s="68"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
       <c r="I41" s="34" t="s">
         <v>89</v>
       </c>
@@ -5425,12 +5425,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
       <c r="I42" s="36" t="s">
         <v>87</v>
       </c>
@@ -5440,16 +5440,16 @@
       </c>
       <c r="K42" s="37" cm="1">
         <f t="array" ref="K42:K43">K20:K21</f>
-        <v>0.61172638628611486</v>
+        <v>0.26193181818181815</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
       <c r="I43" s="38" t="s">
         <v>88</v>
       </c>
@@ -5458,110 +5458,110 @@
         <v>700.2</v>
       </c>
       <c r="K43" s="40">
-        <v>0.59367134098661245</v>
+        <v>0.94346590909090911</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="N44">
         <v>100</v>
       </c>
       <c r="O44" s="42">
         <f>SUM(J47+J48)</f>
-        <v>1.5012995379046286</v>
+        <v>1.6178977272727273</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
       <c r="N45" t="s">
         <v>56</v>
       </c>
       <c r="O45" s="43">
         <f>J47*N44</f>
-        <v>75.93254830847259</v>
+        <v>64.272729371662692</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="I46" s="66" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="I46" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J46" s="67"/>
-      <c r="K46" s="68"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
-        <v>74.197405481990259</v>
+        <v>97.517043355610028</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
       <c r="I47" s="36" t="s">
         <v>87</v>
       </c>
       <c r="J47" s="42">
         <f>SUM(K19+K31+K42)/3</f>
-        <v>0.75932548308472592</v>
+        <v>0.64272729371662696</v>
       </c>
       <c r="K47" s="1">
         <f>K51</f>
-        <v>0.50577880290599464</v>
+        <v>0.39726076802151483</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
       <c r="I48" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J48" s="42">
         <f>SUM(K21+K32+K43)/3</f>
-        <v>0.74197405481990264</v>
+        <v>0.97517043355610034</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="I50" s="66" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+      <c r="I50" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="K51" s="44">
         <f>O45/O44/100</f>
-        <v>0.50577880290599464</v>
+        <v>0.39726076802151483</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5579,11 +5579,16 @@
       </c>
       <c r="K52" s="44">
         <f>O46/O44/100</f>
-        <v>0.49422119709400536</v>
+        <v>0.60273923197848522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B41:G50"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I46:K46"/>
@@ -5595,11 +5600,6 @@
     <mergeCell ref="B19:G28"/>
     <mergeCell ref="B30:G39"/>
     <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="F51:F1048576 F1:F16">
     <cfRule type="colorScale" priority="1">
@@ -5645,10 +5645,10 @@
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,7 +5681,7 @@
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>SUM(H3:H1048576)</f>
-        <v>684.4</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7158,11 +7158,6 @@
       </c>
       <c r="AC22">
         <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="176" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74254CB-9668-4A5B-8600-49855EA08854}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="1000" activeTab="1" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="10545" tabRatio="1000" activeTab="4" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1459,6 +1459,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,33 +1538,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4872,14 +4872,14 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -4961,14 +4961,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -5042,14 +5042,14 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="AD12" t="s">
         <v>251</v>
       </c>
@@ -5123,39 +5123,39 @@
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="I18" s="57" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="I18" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="I19" s="34" t="s">
         <v>89</v>
       </c>
@@ -5169,12 +5169,12 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="I20" s="36" t="s">
         <v>87</v>
       </c>
@@ -5188,12 +5188,12 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="I21" s="38" t="s">
         <v>88</v>
       </c>
@@ -5207,83 +5207,83 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="I29" s="57" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="I29" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
       <c r="I30" s="34" t="s">
         <v>89</v>
       </c>
@@ -5297,12 +5297,12 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="I31" s="36" t="s">
         <v>87</v>
       </c>
@@ -5316,12 +5316,12 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="I32" s="38" t="s">
         <v>88</v>
       </c>
@@ -5335,83 +5335,83 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="I40" s="57" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="I40" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
       <c r="I41" s="34" t="s">
         <v>89</v>
       </c>
@@ -5425,12 +5425,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
       <c r="I42" s="36" t="s">
         <v>87</v>
       </c>
@@ -5444,12 +5444,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
       <c r="I43" s="38" t="s">
         <v>88</v>
       </c>
@@ -5462,12 +5462,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
       <c r="N44">
         <v>100</v>
       </c>
@@ -5477,12 +5477,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
       <c r="N45" t="s">
         <v>56</v>
       </c>
@@ -5492,29 +5492,29 @@
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="I46" s="57" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
+      <c r="I46" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
         <v>97.517043355610028</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
       <c r="I47" s="36" t="s">
         <v>87</v>
       </c>
@@ -5528,12 +5528,12 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
       <c r="I48" s="38" t="s">
         <v>88</v>
       </c>
@@ -5543,25 +5543,25 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="I50" s="57" t="s">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="I50" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -5584,11 +5584,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B41:G50"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I46:K46"/>
@@ -5600,6 +5595,11 @@
     <mergeCell ref="B19:G28"/>
     <mergeCell ref="B30:G39"/>
     <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="F51:F1048576 F1:F16">
     <cfRule type="colorScale" priority="1">
@@ -5647,8 +5647,8 @@
   </sheetPr>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12261,8 +12261,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14496,7 +14496,7 @@
   </sheetPr>
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/nivelamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08B51B74-F894-4FF4-895E-A897C18842D3}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800DB670-D309-4B02-BD32-35B87FC82596}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="5355" windowWidth="14610" windowHeight="15585" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="32940" windowHeight="20985" tabRatio="1000" activeTab="1" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1558,6 +1558,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,33 +1637,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4956,7 +4956,7 @@
   </sheetPr>
   <dimension ref="B1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -4975,14 +4975,14 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -5064,14 +5064,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -5145,14 +5145,14 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="AD12" t="s">
         <v>67</v>
       </c>
@@ -5226,39 +5226,39 @@
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="I18" s="57" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="I18" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="I19" s="34" t="s">
         <v>50</v>
       </c>
@@ -5272,12 +5272,12 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="I20" s="36" t="s">
         <v>48</v>
       </c>
@@ -5291,12 +5291,12 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="I21" s="38" t="s">
         <v>49</v>
       </c>
@@ -5310,83 +5310,83 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="I29" s="57" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="I29" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
       <c r="I30" s="34" t="s">
         <v>50</v>
       </c>
@@ -5400,12 +5400,12 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="I31" s="36" t="s">
         <v>48</v>
       </c>
@@ -5419,12 +5419,12 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="I32" s="38" t="s">
         <v>49</v>
       </c>
@@ -5438,83 +5438,83 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="I40" s="57" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="I40" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
       <c r="I41" s="34" t="s">
         <v>50</v>
       </c>
@@ -5528,12 +5528,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
       <c r="I42" s="36" t="s">
         <v>48</v>
       </c>
@@ -5547,12 +5547,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
       <c r="I43" s="38" t="s">
         <v>49</v>
       </c>
@@ -5565,12 +5565,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
       <c r="N44">
         <v>100</v>
       </c>
@@ -5580,12 +5580,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
       <c r="N45" t="s">
         <v>31</v>
       </c>
@@ -5595,29 +5595,29 @@
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="I46" s="57" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
+      <c r="I46" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
         <v>75.393748364854389</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
       <c r="I47" s="36" t="s">
         <v>48</v>
       </c>
@@ -5631,12 +5631,12 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
       <c r="I48" s="38" t="s">
         <v>49</v>
       </c>
@@ -5646,25 +5646,25 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="I50" s="57" t="s">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="I50" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -5687,11 +5687,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B41:G50"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I46:K46"/>
@@ -5703,6 +5698,11 @@
     <mergeCell ref="B19:G28"/>
     <mergeCell ref="B30:G39"/>
     <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="F51:F1048576 F1:F16">
     <cfRule type="colorScale" priority="1">
@@ -5750,8 +5750,8 @@
   </sheetPr>
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AC40" sqref="A40:AC609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8477,8 +8477,8 @@
   </sheetPr>
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="AC56" sqref="A56:AC716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12316,8 +12316,8 @@
   </sheetPr>
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD53"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="AC54" sqref="A54:AC620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16000,8 +16000,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AC29" sqref="A29:AC751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17910,8 +17910,8 @@
   </sheetPr>
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD72"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:AQ1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22938,8 +22938,8 @@
   </sheetPr>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD41"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:TQ1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Área de Trabalho/nivelamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D818F676-3DA4-4035-A443-B1EFD139DF59}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="14_{3AE44733-C139-4DCE-ACF7-7A76ECA3B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A40A8597-786F-4CAD-8549-03804D2FD266}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" activeTab="6" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" xr2:uid="{6F1CD188-6D62-48EE-9C78-77398EC325CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIVELADAS" sheetId="4" r:id="rId1"/>
@@ -1129,33 +1129,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,6 +1181,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1619,10 +1619,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.31375705789983627</c:v>
+                  <c:v>0.33860529046897458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0632315784638</c:v>
+                  <c:v>1.1474350246376057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,10 +2003,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.38020028109627546</c:v>
+                  <c:v>0.2742653950034421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96563305223705775</c:v>
+                  <c:v>0.69657952313063254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,10 +2338,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.31375705789983627</c:v>
+                  <c:v>0.33860529046897458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0632315784638</c:v>
+                  <c:v>1.1474350246376057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,8 +4523,8 @@
   </sheetPr>
   <dimension ref="B1:AD52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,14 +4543,14 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -4577,18 +4577,18 @@
         <v>47</v>
       </c>
       <c r="C4" s="9">
-        <v>969.4</v>
+        <v>513.1</v>
       </c>
       <c r="D4" s="9">
-        <v>704</v>
+        <v>345.28</v>
       </c>
       <c r="E4" s="10">
         <f>C4/D4</f>
-        <v>1.3769886363636363</v>
+        <v>1.4860403151065804</v>
       </c>
       <c r="F4" s="9">
         <f>D4-C4</f>
-        <v>-265.39999999999998</v>
+        <v>-167.82000000000005</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>7</v>
@@ -4600,19 +4600,19 @@
       </c>
       <c r="C5" s="13">
         <f>C4</f>
-        <v>969.4</v>
+        <v>513.1</v>
       </c>
       <c r="D5" s="13">
         <f>D4</f>
-        <v>704</v>
+        <v>345.28</v>
       </c>
       <c r="E5" s="14">
         <f>E4</f>
-        <v>1.3769886363636363</v>
+        <v>1.4860403151065804</v>
       </c>
       <c r="F5" s="13">
         <f>F4</f>
-        <v>-265.39999999999998</v>
+        <v>-167.82000000000005</v>
       </c>
       <c r="G5" s="15" t="str">
         <f>G4</f>
@@ -4632,14 +4632,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -4666,18 +4666,18 @@
         <v>47</v>
       </c>
       <c r="C9" s="9">
-        <v>710.6</v>
+        <v>251.41</v>
       </c>
       <c r="D9" s="9">
-        <v>528</v>
+        <v>258.95999999999998</v>
       </c>
       <c r="E9" s="10">
         <f>C9/D9</f>
-        <v>1.3458333333333334</v>
+        <v>0.97084491813407481</v>
       </c>
       <c r="F9" s="9">
         <f>D9-C9</f>
-        <v>-182.60000000000002</v>
+        <v>7.5499999999999829</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>7</v>
@@ -4689,19 +4689,19 @@
       </c>
       <c r="C10" s="5">
         <f>C9</f>
-        <v>710.6</v>
+        <v>251.41</v>
       </c>
       <c r="D10" s="5">
         <f>D9</f>
-        <v>528</v>
+        <v>258.95999999999998</v>
       </c>
       <c r="E10" s="6">
         <f>E9</f>
-        <v>1.3458333333333334</v>
+        <v>0.97084491813407481</v>
       </c>
       <c r="F10" s="5">
         <f>F9</f>
-        <v>-182.60000000000002</v>
+        <v>7.5499999999999829</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>G9</f>
@@ -4713,14 +4713,14 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="AD12" t="s">
         <v>43</v>
       </c>
@@ -4750,18 +4750,18 @@
         <v>47</v>
       </c>
       <c r="C14" s="9">
-        <v>1018</v>
+        <v>532.64</v>
       </c>
       <c r="D14" s="9">
-        <v>1056</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="E14" s="10">
         <f>C14/D14</f>
-        <v>0.96401515151515149</v>
+        <v>1.0284213778189681</v>
       </c>
       <c r="F14" s="9">
         <f>D14-C14</f>
-        <v>38</v>
+        <v>-14.720000000000027</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>7</v>
@@ -4773,19 +4773,19 @@
       </c>
       <c r="C15" s="5">
         <f>C14</f>
-        <v>1018</v>
+        <v>532.64</v>
       </c>
       <c r="D15" s="5">
         <f>D14</f>
-        <v>1056</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="E15" s="6">
         <f>E14</f>
-        <v>0.96401515151515149</v>
+        <v>1.0284213778189681</v>
       </c>
       <c r="F15" s="5">
         <f>F14</f>
-        <v>38</v>
+        <v>-14.720000000000027</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>G14</f>
@@ -4794,39 +4794,39 @@
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="I18" s="66" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="I18" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="I19" s="34" t="s">
         <v>39</v>
       </c>
@@ -4836,16 +4836,16 @@
       </c>
       <c r="K19" s="35">
         <f>E4</f>
-        <v>1.3769886363636363</v>
+        <v>1.4860403151065804</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
       <c r="I20" s="36" t="s">
         <v>37</v>
       </c>
@@ -4855,16 +4855,16 @@
       </c>
       <c r="K20" s="37">
         <f>J20*K19/J19</f>
-        <v>0.31375705789983627</v>
+        <v>0.33860529046897458</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="I21" s="38" t="s">
         <v>38</v>
       </c>
@@ -4874,87 +4874,87 @@
       </c>
       <c r="K21" s="40">
         <f>J21*K19/J19</f>
-        <v>1.0632315784638</v>
+        <v>1.1474350246376057</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
-      <c r="I29" s="66" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="I29" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
       <c r="I30" s="34" t="s">
         <v>39</v>
       </c>
@@ -4964,16 +4964,16 @@
       </c>
       <c r="K30" s="35">
         <f>E9</f>
-        <v>1.3458333333333334</v>
+        <v>0.97084491813407481</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
       <c r="I31" s="36" t="s">
         <v>37</v>
       </c>
@@ -4983,16 +4983,16 @@
       </c>
       <c r="K31" s="37">
         <f>J31*K30/J30</f>
-        <v>0.38020028109627546</v>
+        <v>0.2742653950034421</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
       <c r="I32" s="38" t="s">
         <v>38</v>
       </c>
@@ -5002,106 +5002,106 @@
       </c>
       <c r="K32" s="40">
         <f>J32*K30/J30</f>
-        <v>0.96563305223705775</v>
+        <v>0.69657952313063254</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="I40" s="66" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="I40" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="67"/>
-      <c r="K40" s="68"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
       <c r="I41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="J41" s="41">
         <f>E14</f>
-        <v>0.96401515151515149</v>
+        <v>1.0284213778189681</v>
       </c>
       <c r="K41" s="35">
         <f>E14</f>
-        <v>0.96401515151515149</v>
+        <v>1.0284213778189681</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
       <c r="I42" s="36" t="s">
         <v>37</v>
       </c>
@@ -5111,16 +5111,16 @@
       </c>
       <c r="K42" s="37" cm="1">
         <f t="array" ref="K42:K43">K20:K21</f>
-        <v>0.31375705789983627</v>
+        <v>0.33860529046897458</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
       <c r="I43" s="38" t="s">
         <v>38</v>
       </c>
@@ -5129,110 +5129,110 @@
         <v>290</v>
       </c>
       <c r="K43" s="40">
-        <v>1.0632315784638</v>
+        <v>1.1474350246376057</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="N44">
         <v>100</v>
       </c>
       <c r="O44" s="42">
         <f>SUM(J47+J48)</f>
-        <v>1.7210140615081353</v>
+        <v>1.6967868576616136</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
       <c r="N45" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="43">
         <f>J47*N44</f>
-        <v>69.0315325119916</v>
+        <v>69.963700019299907</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="I46" s="66" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="I46" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="67"/>
-      <c r="K46" s="68"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
       <c r="O46" s="43">
         <f>J48*N44</f>
-        <v>103.06987363882192</v>
+        <v>99.714985746861458</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
       <c r="I47" s="36" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="42">
         <f>SUM(K19+K31+K42)/3</f>
-        <v>0.690315325119916</v>
+        <v>0.69963700019299901</v>
       </c>
       <c r="K47" s="1">
         <f>K51</f>
-        <v>0.40110963678878275</v>
+        <v>0.4123305157827466</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
       <c r="I48" s="38" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="42">
         <f>SUM(K21+K32+K43)/3</f>
-        <v>1.0306987363882192</v>
+        <v>0.99714985746861462</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="I50" s="66" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+      <c r="I50" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="K51" s="44">
         <f>O45/O44/100</f>
-        <v>0.40110963678878275</v>
+        <v>0.4123305157827466</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5250,11 +5250,16 @@
       </c>
       <c r="K52" s="44">
         <f>O46/O44/100</f>
-        <v>0.59889036321121714</v>
+        <v>0.5876694842172534</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B41:G50"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="I46:K46"/>
@@ -5266,11 +5271,6 @@
     <mergeCell ref="B19:G28"/>
     <mergeCell ref="B30:G39"/>
     <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="F51:F1048576 F1:F16">
     <cfRule type="colorScale" priority="1">
@@ -14081,7 +14081,7 @@
   </sheetPr>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
